--- a/output/0/tRNA-Thr-TGT-4-1.xlsx
+++ b/output/0/tRNA-Thr-TGT-4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>chr14</t>
   </si>
@@ -222,30 +222,6 @@
   </si>
   <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>21099469</t>
-  </si>
-  <si>
-    <t>21099492</t>
-  </si>
-  <si>
-    <t>21099489</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AGTTTAAGAAATAAATTAAA</t>
-  </si>
-  <si>
-    <t>5% (26)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 0, Doench 2016: 5%, Moreno-Mateos: 16%</t>
   </si>
 </sst>
 </file>
@@ -290,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -768,65 +744,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>55</v>
-      </c>
-      <c r="R9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
